--- a/public/assets/import_format.xlsx
+++ b/public/assets/import_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ekoperasi\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gawean\LAB\ekoperasi\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE1261-A5D6-4E10-8FF0-3CE1E3776608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C37F3C-FDBA-43D1-9AFA-F7BDDEDC77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{BAA6FBA3-7918-484E-A823-DFD1AE569BC1}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{BAA6FBA3-7918-484E-A823-DFD1AE569BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -66,6 +58,15 @@
   </si>
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>saldo pokok</t>
+  </si>
+  <si>
+    <t>saldo wajib</t>
+  </si>
+  <si>
+    <t>saldo manasuka</t>
   </si>
 </sst>
 </file>
@@ -438,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0CCBEF-79F3-408A-A4B2-00322AE58C15}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K11"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +457,7 @@
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,68 +491,77 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="F2" s="3"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="F3" s="3"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="F4" s="3"/>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="3"/>
       <c r="J6" s="4"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="3"/>
       <c r="J7" s="4"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="3"/>
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="3"/>
       <c r="J9" s="4"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="F10" s="3"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" s="3"/>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
   </sheetData>

--- a/public/assets/import_format.xlsx
+++ b/public/assets/import_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gawean\LAB\ekoperasi\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C37F3C-FDBA-43D1-9AFA-F7BDDEDC77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C7BC1-A891-41E5-98F2-41967D4761A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{BAA6FBA3-7918-484E-A823-DFD1AE569BC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAA6FBA3-7918-484E-A823-DFD1AE569BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Password</t>
   </si>
@@ -67,6 +64,18 @@
   </si>
   <si>
     <t>saldo manasuka</t>
+  </si>
+  <si>
+    <t>status kepegawaian (tetap/kontrak)</t>
+  </si>
+  <si>
+    <t>Nama Bank</t>
+  </si>
+  <si>
+    <t>No. Rekening</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -431,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,129 +448,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0CCBEF-79F3-408A-A4B2-00322AE58C15}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="4"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="F3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="F4" s="3"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="3"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="3"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="3"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="F10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" s="3"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
   </sheetData>

--- a/public/assets/import_format.xlsx
+++ b/public/assets/import_format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gawean\LAB\ekoperasi\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5C7BC1-A891-41E5-98F2-41967D4761A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC416884-02E4-44DD-993B-D359EC838419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BAA6FBA3-7918-484E-A823-DFD1AE569BC1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Password</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>pinjaman</t>
+  </si>
+  <si>
+    <t>lama pinjaman</t>
+  </si>
+  <si>
+    <t>cicilan ke</t>
+  </si>
+  <si>
+    <t>potongan manasuka</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0CCBEF-79F3-408A-A4B2-00322AE58C15}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +486,7 @@
     <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -526,8 +538,20 @@
       <c r="Q1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="F2" s="3"/>
       <c r="K2" s="4"/>
@@ -535,7 +559,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="F3" s="3"/>
       <c r="K3" s="4"/>
@@ -543,7 +567,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="F4" s="3"/>
       <c r="K4" s="4"/>
@@ -551,7 +575,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="F5" s="3"/>
       <c r="K5" s="4"/>
@@ -559,7 +583,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="F6" s="3"/>
       <c r="K6" s="4"/>
@@ -567,7 +591,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="F7" s="3"/>
       <c r="K7" s="4"/>
@@ -575,7 +599,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="3"/>
       <c r="K8" s="4"/>
@@ -583,7 +607,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="3"/>
       <c r="K9" s="4"/>
@@ -591,7 +615,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="F10" s="3"/>
       <c r="K10" s="4"/>
@@ -599,7 +623,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" s="3"/>
       <c r="K11" s="4"/>
@@ -607,7 +631,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
